--- a/prix/tube-alpex.xlsx
+++ b/prix/tube-alpex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A26EB9-C3A1-425B-8B31-9F057502F89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60292FB1-98CA-4D40-B1DB-8BC070A4D5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{4E6DADB0-7397-45D0-B450-49581E83838D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4E6DADB0-7397-45D0-B450-49581E83838D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
     <t>path</t>
   </si>
@@ -168,6 +168,15 @@
   </si>
   <si>
     <t>26</t>
+  </si>
+  <si>
+    <t>tube-alpex/Tube-Alpex-isolé-bleu.png</t>
+  </si>
+  <si>
+    <t>tube-alpex/Tube-Alpex-isolé-rouge.png</t>
+  </si>
+  <si>
+    <t>tube-alpex/Tube-Alpex.png</t>
   </si>
 </sst>
 </file>
@@ -578,7 +587,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -622,6 +631,9 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
@@ -636,6 +648,9 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
@@ -650,6 +665,9 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
@@ -664,6 +682,9 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
@@ -678,6 +699,9 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
@@ -692,6 +716,9 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
@@ -706,6 +733,9 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
@@ -720,6 +750,9 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="B9" s="8" t="s">
         <v>12</v>
       </c>
@@ -734,6 +767,9 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
@@ -748,6 +784,9 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="B11" s="8" t="s">
         <v>14</v>
       </c>
@@ -762,6 +801,9 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="B12" s="8" t="s">
         <v>15</v>
       </c>
@@ -776,6 +818,9 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="B13" s="8" t="s">
         <v>16</v>
       </c>
@@ -790,6 +835,9 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="B14" s="8" t="s">
         <v>17</v>
       </c>
@@ -804,6 +852,9 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="B15" s="8" t="s">
         <v>18</v>
       </c>
@@ -818,6 +869,9 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="B16" s="8" t="s">
         <v>19</v>
       </c>
@@ -831,7 +885,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="B17" s="8" t="s">
         <v>20</v>
       </c>
@@ -845,7 +902,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="B18" s="8" t="s">
         <v>21</v>
       </c>
@@ -859,7 +919,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="B19" s="8" t="s">
         <v>22</v>
       </c>

--- a/prix/tube-alpex.xlsx
+++ b/prix/tube-alpex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA167AF9-182C-409B-93F8-C8A7E7834E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAD8EB5-0706-4517-AE45-2C5EC416906C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="996" yWindow="972" windowWidth="13236" windowHeight="9708" xr2:uid="{4E6DADB0-7397-45D0-B450-49581E83838D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4E6DADB0-7397-45D0-B450-49581E83838D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
   <si>
     <t>path</t>
   </si>
@@ -167,7 +167,28 @@
     <t>20</t>
   </si>
   <si>
-    <t>26</t>
+    <t>tube-alpex/Tube-Alpex-gaine-bleue.png</t>
+  </si>
+  <si>
+    <t>tube-alpex/Tube-Alpex-gaine-rouge.png</t>
+  </si>
+  <si>
+    <t>tube-alpex/Tube-Alpex-isolé-bleu.png</t>
+  </si>
+  <si>
+    <t>tube-alpex/Tube-Alpex-isolé-rouge.png</t>
+  </si>
+  <si>
+    <t>tube-alpex/Tube-Alpex.png</t>
+  </si>
+  <si>
+    <t>16-au-mètre</t>
+  </si>
+  <si>
+    <t>20-au-mètre</t>
+  </si>
+  <si>
+    <t>26-au-mètre</t>
   </si>
 </sst>
 </file>
@@ -578,7 +599,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -622,6 +643,9 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
@@ -636,6 +660,9 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
@@ -650,6 +677,9 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
@@ -664,6 +694,9 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
@@ -678,6 +711,9 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
@@ -692,6 +728,9 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
@@ -706,11 +745,14 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D8" s="9">
         <v>2.0100000000000002</v>
@@ -720,11 +762,14 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="B9" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D9" s="9">
         <v>3.75</v>
@@ -734,11 +779,14 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D10" s="9">
         <v>7.07</v>
@@ -748,6 +796,9 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="B11" s="8" t="s">
         <v>14</v>
       </c>
@@ -762,6 +813,9 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="B12" s="8" t="s">
         <v>15</v>
       </c>
@@ -776,6 +830,9 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="B13" s="8" t="s">
         <v>16</v>
       </c>
@@ -790,6 +847,9 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="B14" s="8" t="s">
         <v>17</v>
       </c>
@@ -804,6 +864,9 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="B15" s="8" t="s">
         <v>18</v>
       </c>
@@ -818,6 +881,9 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="B16" s="8" t="s">
         <v>19</v>
       </c>
@@ -831,7 +897,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="B17" s="8" t="s">
         <v>20</v>
       </c>
@@ -845,7 +914,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="B18" s="8" t="s">
         <v>21</v>
       </c>
@@ -859,7 +931,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="B19" s="8" t="s">
         <v>22</v>
       </c>

--- a/prix/tube-alpex.xlsx
+++ b/prix/tube-alpex.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\raccords-plomberie\prix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAD8EB5-0706-4517-AE45-2C5EC416906C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E71B550-5F8B-44F5-A511-9A4D5EAD7E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4E6DADB0-7397-45D0-B450-49581E83838D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
   <si>
     <t>path</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>26-au-mètre</t>
+  </si>
+  <si>
+    <t>16-5m</t>
+  </si>
+  <si>
+    <t>20-2,50m</t>
   </si>
 </sst>
 </file>
@@ -599,14 +605,15 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36.109375" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="11.5546875" style="6"/>
+    <col min="3" max="3" width="11.5546875" style="7"/>
+    <col min="4" max="5" width="11.5546875" style="6"/>
     <col min="6" max="6" width="22.77734375" style="1" customWidth="1"/>
     <col min="7" max="7" width="51.77734375" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.77734375" style="2" customWidth="1"/>
@@ -803,7 +810,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D11" s="9">
         <v>12.61</v>
@@ -820,7 +827,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D12" s="9">
         <v>8.65</v>
@@ -870,7 +877,7 @@
       <c r="B15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="7">
         <v>16</v>
       </c>
       <c r="D15" s="9">
@@ -887,7 +894,7 @@
       <c r="B16" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="7">
         <v>16</v>
       </c>
       <c r="D16" s="9">
@@ -904,7 +911,7 @@
       <c r="B17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="7">
         <v>16</v>
       </c>
       <c r="D17" s="9">
@@ -921,7 +928,7 @@
       <c r="B18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="7">
         <v>16</v>
       </c>
       <c r="D18" s="9">
@@ -938,7 +945,7 @@
       <c r="B19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="7">
         <v>16</v>
       </c>
       <c r="D19" s="9">
